--- a/frontend/public/template_students.xlsx
+++ b/frontend/public/template_students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,63 +439,25 @@
           <t>الاسم</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>الصف</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>البريد الإلكتروني</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>كلمة المرور</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>مثال: فاطمة أحمد</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1/أ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fatima@example.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>password123</t>
+          <t>مثال: فاطمة محمد الأحمد</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>مثال: نورة محمد</t>
+          <t>مثال: نورة سعيد الجهني</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
-          <t>2/ب</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>noura@example.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>password456</t>
+          <t>مثال: هند علي المطيري</t>
         </is>
       </c>
     </row>

--- a/frontend/public/template_students.xlsx
+++ b/frontend/public/template_students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,27 +439,65 @@
           <t>الاسم</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>الصف</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>كلمة المرور</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>مثال: فاطمة محمد الأحمد</t>
+          <t>مثال: فاطمة أحمد السالم</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/أ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pass123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>مثال: نورة سعيد الجهني</t>
+          <t>(احذف هذا السطر وأدخل بيانات الطالبات)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(مثال: 1/أ، 2/ب، 3/ج)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(اختياري - الافتراضية: 123456)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>مثال: هند علي المطيري</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
